--- a/data-raw/unhcr_2023/iati_related_activity.xlsx
+++ b/data-raw/unhcr_2023/iati_related_activity.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C398"/>
+  <dimension ref="A1:C523"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,17 +564,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2024</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -586,12 +586,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-BRA</t>
+          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -620,7 +620,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CAN</t>
+          <t>XM-DAC-41121-2023-AME-BRA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -637,7 +637,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-COL</t>
+          <t>XM-DAC-41121-2023-AME-CAN</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CRI</t>
+          <t>XM-DAC-41121-2023-AME-COL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ECU</t>
+          <t>XM-DAC-41121-2023-AME-CRI</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-GTM</t>
+          <t>XM-DAC-41121-2023-AME-ECU</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -705,7 +705,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-HND</t>
+          <t>XM-DAC-41121-2023-AME-GTM</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-MEX</t>
+          <t>XM-DAC-41121-2023-AME-HND</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-OO</t>
+          <t>XM-DAC-41121-2023-AME-MEX</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -756,7 +756,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PANMCO</t>
+          <t>XM-DAC-41121-2023-AME-OO</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -773,7 +773,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PER</t>
+          <t>XM-DAC-41121-2023-AME-PANMCO</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -790,7 +790,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RA</t>
+          <t>XM-DAC-41121-2023-AME-PER</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RB</t>
+          <t>XM-DAC-41121-2023-AME-RA</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-SLV</t>
+          <t>XM-DAC-41121-2023-AME-RB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-USAMCO</t>
+          <t>XM-DAC-41121-2023-AME-SLV</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -858,7 +858,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-VEN</t>
+          <t>XM-DAC-41121-2023-AME-USAMCO</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -875,46 +875,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME</t>
+          <t>XM-DAC-41121-2023-AME-VEN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2022-AME</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AFG</t>
+          <t>XM-DAC-41121-2024-AME</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -926,12 +926,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -943,7 +943,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-BGD</t>
+          <t>XM-DAC-41121-2023-ASO-AFG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -960,7 +960,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-CHN</t>
+          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -977,7 +977,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IDN</t>
+          <t>XM-DAC-41121-2023-ASO-BGD</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IND</t>
+          <t>XM-DAC-41121-2023-ASO-CHN</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IRN</t>
+          <t>XM-DAC-41121-2023-ASO-IDN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1028,7 +1028,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-JPN</t>
+          <t>XM-DAC-41121-2023-ASO-IND</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1045,7 +1045,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2023-ASO-IRN</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KOR</t>
+          <t>XM-DAC-41121-2023-ASO-JPN</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1079,7 +1079,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-LKA</t>
+          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1096,7 +1096,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MMR</t>
+          <t>XM-DAC-41121-2023-ASO-KOR</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1113,7 +1113,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MYS</t>
+          <t>XM-DAC-41121-2023-ASO-LKA</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-NPL</t>
+          <t>XM-DAC-41121-2023-ASO-MMR</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1147,7 +1147,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PAK</t>
+          <t>XM-DAC-41121-2023-ASO-MYS</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1164,7 +1164,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PHL</t>
+          <t>XM-DAC-41121-2023-ASO-NPL</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RA</t>
+          <t>XM-DAC-41121-2023-ASO-PAK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1198,7 +1198,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RB</t>
+          <t>XM-DAC-41121-2023-ASO-PHL</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1215,7 +1215,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2023-ASO-RA</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1232,7 +1232,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-TJK</t>
+          <t>XM-DAC-41121-2023-ASO-RB</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1249,63 +1249,63 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO</t>
+          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-ASO-TJK</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-BDI</t>
+          <t>XM-DAC-41121-2022-ASO</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-DJI</t>
+          <t>XM-DAC-41121-2024-ASO</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1317,12 +1317,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ERI</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ETH</t>
+          <t>XM-DAC-41121-2023-EHGL-BDI</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1351,7 +1351,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-KEN</t>
+          <t>XM-DAC-41121-2023-EHGL-DJI</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1368,7 +1368,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-OO</t>
+          <t>XM-DAC-41121-2023-EHGL-ERI</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RA</t>
+          <t>XM-DAC-41121-2023-EHGL-ETH</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1402,7 +1402,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RB</t>
+          <t>XM-DAC-41121-2023-EHGL-KEN</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1419,7 +1419,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RWA</t>
+          <t>XM-DAC-41121-2023-EHGL-OO</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1436,7 +1436,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SDN</t>
+          <t>XM-DAC-41121-2023-EHGL-RA</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1453,7 +1453,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SOM</t>
+          <t>XM-DAC-41121-2023-EHGL-RB</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1470,7 +1470,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SSD</t>
+          <t>XM-DAC-41121-2023-EHGL-RWA</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-TZA</t>
+          <t>XM-DAC-41121-2023-EHGL-SDN</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-UGA</t>
+          <t>XM-DAC-41121-2023-EHGL-SOM</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1521,41 +1521,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL</t>
+          <t>XM-DAC-41121-2023-EHGL-SSD</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-EHGL-TZA</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ALB</t>
+          <t>XM-DAC-41121-2023-EHGL-UGA</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1567,34 +1567,34 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ARM</t>
+          <t>XM-DAC-41121-2022-EHGL</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-AZE</t>
+          <t>XM-DAC-41121-2024-EHGL</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1606,12 +1606,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1623,7 +1623,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BGR</t>
+          <t>XM-DAC-41121-2023-EUR-ALB</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BIH</t>
+          <t>XM-DAC-41121-2023-EUR-ARM</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BLR</t>
+          <t>XM-DAC-41121-2023-EUR-AZE</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1674,7 +1674,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-CYP</t>
+          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-DEU</t>
+          <t>XM-DAC-41121-2023-EUR-BGR</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1708,7 +1708,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ESP</t>
+          <t>XM-DAC-41121-2023-EUR-BIH</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-FRA</t>
+          <t>XM-DAC-41121-2023-EUR-BLR</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GBR</t>
+          <t>XM-DAC-41121-2023-EUR-CYP</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GEO</t>
+          <t>XM-DAC-41121-2023-EUR-DEU</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1776,7 +1776,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GRC</t>
+          <t>XM-DAC-41121-2023-EUR-ESP</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HRV</t>
+          <t>XM-DAC-41121-2023-EUR-FRA</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1810,7 +1810,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2023-EUR-GBR</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1827,7 +1827,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2023-EUR-GEO</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-KOS</t>
+          <t>XM-DAC-41121-2023-EUR-GRC</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1861,7 +1861,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MDA</t>
+          <t>XM-DAC-41121-2023-EUR-HRV</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1878,7 +1878,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MKD</t>
+          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1895,7 +1895,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MLT</t>
+          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1912,7 +1912,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MNE</t>
+          <t>XM-DAC-41121-2023-EUR-KOS</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1929,7 +1929,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-OO</t>
+          <t>XM-DAC-41121-2023-EUR-MDA</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1946,7 +1946,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-POL</t>
+          <t>XM-DAC-41121-2023-EUR-MKD</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1963,7 +1963,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RA</t>
+          <t>XM-DAC-41121-2023-EUR-MLT</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1980,7 +1980,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RB</t>
+          <t>XM-DAC-41121-2023-EUR-MNE</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -1997,7 +1997,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ROU</t>
+          <t>XM-DAC-41121-2023-EUR-OO</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2014,7 +2014,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RUS</t>
+          <t>XM-DAC-41121-2023-EUR-POL</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2031,7 +2031,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SRB</t>
+          <t>XM-DAC-41121-2023-EUR-RA</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2023-EUR-RB</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2065,7 +2065,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-TUR</t>
+          <t>XM-DAC-41121-2023-EUR-ROU</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2082,7 +2082,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-UKR</t>
+          <t>XM-DAC-41121-2023-EUR-RUS</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2099,41 +2099,41 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR</t>
+          <t>XM-DAC-41121-2023-EUR-SRB</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-DZA</t>
+          <t>XM-DAC-41121-2023-EUR-TUR</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2145,12 +2145,12 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-EGY</t>
+          <t>XM-DAC-41121-2023-EUR-UKR</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2162,34 +2162,34 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ESH</t>
+          <t>XM-DAC-41121-2022-EUR</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+          <t>XM-DAC-41121-2024-EUR</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2201,12 +2201,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ISR</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2218,7 +2218,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-JOR</t>
+          <t>XM-DAC-41121-2023-MENA-DZA</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2235,7 +2235,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBN</t>
+          <t>XM-DAC-41121-2023-MENA-EGY</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBY</t>
+          <t>XM-DAC-41121-2023-MENA-ESH</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MAR</t>
+          <t>XM-DAC-41121-2023-MENA-IRQ</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2286,7 +2286,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MRT</t>
+          <t>XM-DAC-41121-2023-MENA-ISR</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2303,7 +2303,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-OO</t>
+          <t>XM-DAC-41121-2023-MENA-JOR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RA</t>
+          <t>XM-DAC-41121-2023-MENA-LBN</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2337,7 +2337,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RB</t>
+          <t>XM-DAC-41121-2023-MENA-LBY</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2354,7 +2354,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+          <t>XM-DAC-41121-2023-MENA-MAR</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SYR</t>
+          <t>XM-DAC-41121-2023-MENA-MRT</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2388,7 +2388,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-TUN</t>
+          <t>XM-DAC-41121-2023-MENA-OO</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-YEM</t>
+          <t>XM-DAC-41121-2023-MENA-RA</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2422,41 +2422,41 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA</t>
+          <t>XM-DAC-41121-2023-MENA-RB</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-AGO</t>
+          <t>XM-DAC-41121-2023-MENA-SYR</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2468,12 +2468,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COD</t>
+          <t>XM-DAC-41121-2023-MENA-TUN</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2485,12 +2485,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COG</t>
+          <t>XM-DAC-41121-2023-MENA-YEM</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2502,34 +2502,34 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MOZ</t>
+          <t>XM-DAC-41121-2022-MENA</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-MENA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MWI</t>
+          <t>XM-DAC-41121-2024-MENA</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2541,12 +2541,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RA</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2558,7 +2558,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RB</t>
+          <t>XM-DAC-41121-2023-SA-AGO</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+          <t>XM-DAC-41121-2023-SA-COD</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2592,7 +2592,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZMB</t>
+          <t>XM-DAC-41121-2023-SA-COG</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2609,7 +2609,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZWE</t>
+          <t>XM-DAC-41121-2023-SA-MOZ</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2626,41 +2626,41 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SAO</t>
+          <t>XM-DAC-41121-2023-SA-MWI</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-SA-RA</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-BFA</t>
+          <t>XM-DAC-41121-2023-SA-RB</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2672,12 +2672,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CAF</t>
+          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2689,12 +2689,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CIV</t>
+          <t>XM-DAC-41121-2023-SA-ZMB</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2706,12 +2706,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2023-SA-ZWE</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2723,34 +2723,34 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-GHA</t>
+          <t>XM-DAC-41121-2022-SAO</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-SAO</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-LBR</t>
+          <t>XM-DAC-41121-2024-SAO</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -2762,12 +2762,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-MLI</t>
+          <t>XM-DAC-41121-2023</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -2779,7 +2779,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NER</t>
+          <t>XM-DAC-41121-2023-WCA-BFA</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2796,7 +2796,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NGA</t>
+          <t>XM-DAC-41121-2023-WCA-CAF</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RA</t>
+          <t>XM-DAC-41121-2023-WCA-CIV</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2830,7 +2830,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RB</t>
+          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2847,7 +2847,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+          <t>XM-DAC-41121-2023-WCA-GHA</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2864,7 +2864,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-TCD</t>
+          <t>XM-DAC-41121-2023-WCA-LBR</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2881,143 +2881,143 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA</t>
+          <t>XM-DAC-41121-2023-WCA-MLI</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2023-WCA-NER</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-ARGMCO</t>
+          <t>XM-DAC-41121-2023-WCA-NGA</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-BRA</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2023-WCA-RA</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-BRA</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-BRA</t>
+          <t>XM-DAC-41121-2023-WCA-RB</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CAN</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CAN</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CAN</t>
+          <t>XM-DAC-41121-2023-WCA-TCD</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-COL</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2022-WCA</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-COL</t>
+          <t>XM-DAC-41121-2023-WCA</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-COL</t>
+          <t>XM-DAC-41121-2024-WCA</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3029,7 +3029,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CRI</t>
+          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -3046,12 +3046,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-CRI</t>
+          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-CRI</t>
+          <t>XM-DAC-41121-2022-AME-ARGMCO</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3063,63 +3063,63 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ECU</t>
+          <t>XM-DAC-41121-2023-AME-ARGMCO</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2024-AME-ARGMCO</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-ECU</t>
+          <t>XM-DAC-41121-2023-AME-BRA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-ECU</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-GTM</t>
+          <t>XM-DAC-41121-2023-AME-BRA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2022-AME-BRA</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-GTM</t>
+          <t>XM-DAC-41121-2023-AME-BRA</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-GTM</t>
+          <t>XM-DAC-41121-2024-AME-BRA</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3131,7 +3131,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-HND</t>
+          <t>XM-DAC-41121-2023-AME-CAN</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -3148,12 +3148,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-HND</t>
+          <t>XM-DAC-41121-2023-AME-CAN</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-HND</t>
+          <t>XM-DAC-41121-2022-AME-CAN</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3165,114 +3165,114 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-MEX</t>
+          <t>XM-DAC-41121-2023-AME-CAN</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2024-AME-CAN</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-MEX</t>
+          <t>XM-DAC-41121-2023-AME-COL</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-MEX</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-OO</t>
+          <t>XM-DAC-41121-2023-AME-COL</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2022-AME-COL</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PANMCO</t>
+          <t>XM-DAC-41121-2023-AME-COL</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2024-AME-COL</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PANMCO</t>
+          <t>XM-DAC-41121-2023-AME-CRI</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PANMCO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PER</t>
+          <t>XM-DAC-41121-2023-AME-CRI</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2022-AME-CRI</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-PER</t>
+          <t>XM-DAC-41121-2023-AME-CRI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-PER</t>
+          <t>XM-DAC-41121-2024-AME-CRI</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3284,7 +3284,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RA</t>
+          <t>XM-DAC-41121-2023-AME-ECU</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -3301,12 +3301,12 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RA</t>
+          <t>XM-DAC-41121-2023-AME-ECU</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RA</t>
+          <t>XM-DAC-41121-2022-AME-ECU</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3318,63 +3318,63 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RB</t>
+          <t>XM-DAC-41121-2023-AME-ECU</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2024-AME-ECU</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-RB</t>
+          <t>XM-DAC-41121-2023-AME-GTM</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-RB</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-SLV</t>
+          <t>XM-DAC-41121-2023-AME-GTM</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2022-AME-GTM</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-SLV</t>
+          <t>XM-DAC-41121-2023-AME-GTM</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-SLV</t>
+          <t>XM-DAC-41121-2024-AME-GTM</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3386,7 +3386,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-USAMCO</t>
+          <t>XM-DAC-41121-2023-AME-HND</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -3403,12 +3403,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-USAMCO</t>
+          <t>XM-DAC-41121-2023-AME-HND</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-USAMCO</t>
+          <t>XM-DAC-41121-2022-AME-HND</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3420,63 +3420,63 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-VEN</t>
+          <t>XM-DAC-41121-2023-AME-HND</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME</t>
+          <t>XM-DAC-41121-2024-AME-HND</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-AME-VEN</t>
+          <t>XM-DAC-41121-2023-AME-MEX</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-AME-VEN</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AFG</t>
+          <t>XM-DAC-41121-2023-AME-MEX</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-AME-MEX</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AFG</t>
+          <t>XM-DAC-41121-2023-AME-MEX</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AFG</t>
+          <t>XM-DAC-41121-2024-AME-MEX</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,12 +3488,12 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2023-AME-OO</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3505,12 +3505,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2023-AME-OO</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
+          <t>XM-DAC-41121-2024-AME-OO</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3522,12 +3522,12 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-BGD</t>
+          <t>XM-DAC-41121-2023-AME-PANMCO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3539,12 +3539,12 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-BGD</t>
+          <t>XM-DAC-41121-2023-AME-PANMCO</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-BGD</t>
+          <t>XM-DAC-41121-2022-AME-PANMCO</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3556,63 +3556,63 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-CHN</t>
+          <t>XM-DAC-41121-2023-AME-PANMCO</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-AME-PANMCO</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-CHN</t>
+          <t>XM-DAC-41121-2023-AME-PER</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-CHN</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IDN</t>
+          <t>XM-DAC-41121-2023-AME-PER</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-AME-PER</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IDN</t>
+          <t>XM-DAC-41121-2023-AME-PER</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IDN</t>
+          <t>XM-DAC-41121-2024-AME-PER</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3624,12 +3624,12 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IND</t>
+          <t>XM-DAC-41121-2023-AME-RA</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3641,12 +3641,12 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IND</t>
+          <t>XM-DAC-41121-2023-AME-RA</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IND</t>
+          <t>XM-DAC-41121-2022-AME-RA</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3658,12 +3658,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IRN</t>
+          <t>XM-DAC-41121-2023-AME-RB</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3675,12 +3675,12 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-IRN</t>
+          <t>XM-DAC-41121-2023-AME-RB</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-IRN</t>
+          <t>XM-DAC-41121-2022-AME-RB</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3692,63 +3692,63 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-JPN</t>
+          <t>XM-DAC-41121-2023-AME-RB</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-AME-RB</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-JPN</t>
+          <t>XM-DAC-41121-2023-AME-SLV</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-JPN</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2023-AME-SLV</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-AME-SLV</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2023-AME-SLV</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
+          <t>XM-DAC-41121-2024-AME-SLV</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,12 +3760,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KOR</t>
+          <t>XM-DAC-41121-2023-AME-USAMCO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3777,12 +3777,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-KOR</t>
+          <t>XM-DAC-41121-2023-AME-USAMCO</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-KOR</t>
+          <t>XM-DAC-41121-2022-AME-USAMCO</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3794,63 +3794,63 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-LKA</t>
+          <t>XM-DAC-41121-2023-AME-USAMCO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-AME-USAMCO</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-LKA</t>
+          <t>XM-DAC-41121-2023-AME-VEN</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-LKA</t>
+          <t>XM-DAC-41121-2023-AME</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MMR</t>
+          <t>XM-DAC-41121-2023-AME-VEN</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-AME-VEN</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MMR</t>
+          <t>XM-DAC-41121-2023-AME-VEN</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MMR</t>
+          <t>XM-DAC-41121-2024-AME-VEN</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3862,7 +3862,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MYS</t>
+          <t>XM-DAC-41121-2023-ASO-AFG</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -3879,12 +3879,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-MYS</t>
+          <t>XM-DAC-41121-2023-ASO-AFG</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-MYS</t>
+          <t>XM-DAC-41121-2022-ASO-AFG</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3896,63 +3896,63 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-NPL</t>
+          <t>XM-DAC-41121-2023-ASO-AFG</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-ASO-AFG</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-NPL</t>
+          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-NPL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PAK</t>
+          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PAK</t>
+          <t>XM-DAC-41121-2023-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PAK</t>
+          <t>XM-DAC-41121-2024-ASO-AUSMCO</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3964,7 +3964,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PHL</t>
+          <t>XM-DAC-41121-2023-ASO-BGD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -3981,12 +3981,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-PHL</t>
+          <t>XM-DAC-41121-2023-ASO-BGD</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-PHL</t>
+          <t>XM-DAC-41121-2022-ASO-BGD</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3998,63 +3998,63 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RA</t>
+          <t>XM-DAC-41121-2023-ASO-BGD</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-ASO-BGD</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RA</t>
+          <t>XM-DAC-41121-2023-ASO-CHN</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RA</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RB</t>
+          <t>XM-DAC-41121-2023-ASO-CHN</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2022-ASO-CHN</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-RB</t>
+          <t>XM-DAC-41121-2023-ASO-CHN</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-RB</t>
+          <t>XM-DAC-41121-2024-ASO-CHN</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4066,7 +4066,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2023-ASO-IDN</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -4083,12 +4083,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2023-ASO-IDN</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
+          <t>XM-DAC-41121-2022-ASO-IDN</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4100,63 +4100,63 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-TJK</t>
+          <t>XM-DAC-41121-2023-ASO-IDN</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO</t>
+          <t>XM-DAC-41121-2024-ASO-IDN</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-ASO-TJK</t>
+          <t>XM-DAC-41121-2023-ASO-IND</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-ASO-TJK</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-BDI</t>
+          <t>XM-DAC-41121-2023-ASO-IND</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2022-ASO-IND</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-BDI</t>
+          <t>XM-DAC-41121-2023-ASO-IND</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-BDI</t>
+          <t>XM-DAC-41121-2024-ASO-IND</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4168,12 +4168,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-DJI</t>
+          <t>XM-DAC-41121-2023-ASO-IRN</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4185,12 +4185,12 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-DJI</t>
+          <t>XM-DAC-41121-2023-ASO-IRN</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-DJI</t>
+          <t>XM-DAC-41121-2022-ASO-IRN</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4202,63 +4202,63 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ERI</t>
+          <t>XM-DAC-41121-2023-ASO-IRN</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2024-ASO-IRN</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ERI</t>
+          <t>XM-DAC-41121-2023-ASO-JPN</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ERI</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ETH</t>
+          <t>XM-DAC-41121-2023-ASO-JPN</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2022-ASO-JPN</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-ETH</t>
+          <t>XM-DAC-41121-2023-ASO-JPN</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-ETH</t>
+          <t>XM-DAC-41121-2024-ASO-JPN</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4270,12 +4270,12 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-KEN</t>
+          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4287,12 +4287,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-KEN</t>
+          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-KEN</t>
+          <t>XM-DAC-41121-2022-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4304,63 +4304,63 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-OO</t>
+          <t>XM-DAC-41121-2023-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2024-ASO-KAZMCO</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-OO</t>
+          <t>XM-DAC-41121-2023-ASO-KOR</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-OO</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RA</t>
+          <t>XM-DAC-41121-2023-ASO-KOR</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2022-ASO-KOR</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RA</t>
+          <t>XM-DAC-41121-2023-ASO-KOR</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RA</t>
+          <t>XM-DAC-41121-2024-ASO-KOR</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4372,12 +4372,12 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RB</t>
+          <t>XM-DAC-41121-2023-ASO-LKA</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4389,12 +4389,12 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RB</t>
+          <t>XM-DAC-41121-2023-ASO-LKA</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RB</t>
+          <t>XM-DAC-41121-2022-ASO-LKA</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4406,63 +4406,63 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RWA</t>
+          <t>XM-DAC-41121-2023-ASO-LKA</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2024-ASO-LKA</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-RWA</t>
+          <t>XM-DAC-41121-2023-ASO-MMR</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-RWA</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SDN</t>
+          <t>XM-DAC-41121-2023-ASO-MMR</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2022-ASO-MMR</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SDN</t>
+          <t>XM-DAC-41121-2023-ASO-MMR</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SDN</t>
+          <t>XM-DAC-41121-2024-ASO-MMR</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4474,12 +4474,12 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SOM</t>
+          <t>XM-DAC-41121-2023-ASO-MYS</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4491,12 +4491,12 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SOM</t>
+          <t>XM-DAC-41121-2023-ASO-MYS</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SOM</t>
+          <t>XM-DAC-41121-2022-ASO-MYS</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4508,63 +4508,63 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SSD</t>
+          <t>XM-DAC-41121-2023-ASO-MYS</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2024-ASO-MYS</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-SSD</t>
+          <t>XM-DAC-41121-2023-ASO-NPL</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-SSD</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-TZA</t>
+          <t>XM-DAC-41121-2023-ASO-NPL</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2022-ASO-NPL</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-TZA</t>
+          <t>XM-DAC-41121-2023-ASO-NPL</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-TZA</t>
+          <t>XM-DAC-41121-2024-ASO-NPL</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4576,12 +4576,12 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-UGA</t>
+          <t>XM-DAC-41121-2023-ASO-PAK</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4593,12 +4593,12 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EHGL-UGA</t>
+          <t>XM-DAC-41121-2023-ASO-PAK</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EHGL-UGA</t>
+          <t>XM-DAC-41121-2022-ASO-PAK</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4610,63 +4610,63 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ALB</t>
+          <t>XM-DAC-41121-2023-ASO-PAK</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-ASO-PAK</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ALB</t>
+          <t>XM-DAC-41121-2023-ASO-PHL</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ALB</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ARM</t>
+          <t>XM-DAC-41121-2023-ASO-PHL</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-ASO-PHL</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ARM</t>
+          <t>XM-DAC-41121-2023-ASO-PHL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ARM</t>
+          <t>XM-DAC-41121-2024-ASO-PHL</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4678,12 +4678,12 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-AZE</t>
+          <t>XM-DAC-41121-2023-ASO-RA</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4695,12 +4695,12 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-AZE</t>
+          <t>XM-DAC-41121-2023-ASO-RA</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-AZE</t>
+          <t>XM-DAC-41121-2022-ASO-RA</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4712,12 +4712,12 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2023-ASO-RB</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4729,12 +4729,12 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2023-ASO-RB</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
+          <t>XM-DAC-41121-2022-ASO-RB</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4746,63 +4746,63 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BGR</t>
+          <t>XM-DAC-41121-2023-ASO-RB</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-ASO-RB</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BGR</t>
+          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BGR</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BIH</t>
+          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-ASO-THAMCO</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BIH</t>
+          <t>XM-DAC-41121-2023-ASO-THAMCO</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-BIH</t>
+          <t>XM-DAC-41121-2024-ASO-THAMCO</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4814,12 +4814,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-BLR</t>
+          <t>XM-DAC-41121-2023-ASO-TJK</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-ASO</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4831,29 +4831,29 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-CYP</t>
+          <t>XM-DAC-41121-2023-ASO-TJK</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-ASO-TJK</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-CYP</t>
+          <t>XM-DAC-41121-2023-ASO-TJK</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-CYP</t>
+          <t>XM-DAC-41121-2024-ASO-TJK</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4865,12 +4865,12 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-DEU</t>
+          <t>XM-DAC-41121-2023-EHGL-BDI</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4882,12 +4882,12 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-DEU</t>
+          <t>XM-DAC-41121-2023-EHGL-BDI</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-DEU</t>
+          <t>XM-DAC-41121-2022-EHGL-BDI</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4899,63 +4899,63 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ESP</t>
+          <t>XM-DAC-41121-2023-EHGL-BDI</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-BDI</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ESP</t>
+          <t>XM-DAC-41121-2023-EHGL-DJI</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ESP</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-FRA</t>
+          <t>XM-DAC-41121-2023-EHGL-DJI</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-DJI</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-FRA</t>
+          <t>XM-DAC-41121-2023-EHGL-DJI</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-FRA</t>
+          <t>XM-DAC-41121-2024-EHGL-DJI</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4967,12 +4967,12 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GBR</t>
+          <t>XM-DAC-41121-2023-EHGL-ERI</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4984,12 +4984,12 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GBR</t>
+          <t>XM-DAC-41121-2023-EHGL-ERI</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GBR</t>
+          <t>XM-DAC-41121-2022-EHGL-ERI</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5001,63 +5001,63 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GEO</t>
+          <t>XM-DAC-41121-2023-EHGL-ERI</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-ERI</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GEO</t>
+          <t>XM-DAC-41121-2023-EHGL-ETH</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GEO</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GRC</t>
+          <t>XM-DAC-41121-2023-EHGL-ETH</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-ETH</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-GRC</t>
+          <t>XM-DAC-41121-2023-EHGL-ETH</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-GRC</t>
+          <t>XM-DAC-41121-2024-EHGL-ETH</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5069,12 +5069,12 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HRV</t>
+          <t>XM-DAC-41121-2023-EHGL-KEN</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5086,12 +5086,12 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HRV</t>
+          <t>XM-DAC-41121-2023-EHGL-KEN</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HRV</t>
+          <t>XM-DAC-41121-2022-EHGL-KEN</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5103,63 +5103,63 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2023-EHGL-KEN</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-KEN</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2023-EHGL-OO</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2023-EHGL-OO</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-OO</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2023-EHGL-OO</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
+          <t>XM-DAC-41121-2024-EHGL-OO</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5171,12 +5171,12 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-KOS</t>
+          <t>XM-DAC-41121-2023-EHGL-RA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5188,12 +5188,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-KOS</t>
+          <t>XM-DAC-41121-2023-EHGL-RA</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-KOS</t>
+          <t>XM-DAC-41121-2022-EHGL-RA</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5205,12 +5205,12 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MDA</t>
+          <t>XM-DAC-41121-2023-EHGL-RB</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5222,29 +5222,29 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MKD</t>
+          <t>XM-DAC-41121-2023-EHGL-RB</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-RB</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MKD</t>
+          <t>XM-DAC-41121-2023-EHGL-RB</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MKD</t>
+          <t>XM-DAC-41121-2024-EHGL-RB</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5256,12 +5256,12 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MLT</t>
+          <t>XM-DAC-41121-2023-EHGL-RWA</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5273,12 +5273,12 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MLT</t>
+          <t>XM-DAC-41121-2023-EHGL-RWA</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MLT</t>
+          <t>XM-DAC-41121-2022-EHGL-RWA</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5290,63 +5290,63 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MNE</t>
+          <t>XM-DAC-41121-2023-EHGL-RWA</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-RWA</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-MNE</t>
+          <t>XM-DAC-41121-2023-EHGL-SDN</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-MNE</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-OO</t>
+          <t>XM-DAC-41121-2023-EHGL-SDN</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-SDN</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-OO</t>
+          <t>XM-DAC-41121-2023-EHGL-SDN</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-OO</t>
+          <t>XM-DAC-41121-2024-EHGL-SDN</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5358,12 +5358,12 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-POL</t>
+          <t>XM-DAC-41121-2023-EHGL-SOM</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5375,12 +5375,12 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-POL</t>
+          <t>XM-DAC-41121-2023-EHGL-SOM</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-POL</t>
+          <t>XM-DAC-41121-2022-EHGL-SOM</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5392,63 +5392,63 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RA</t>
+          <t>XM-DAC-41121-2023-EHGL-SOM</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-SOM</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RA</t>
+          <t>XM-DAC-41121-2023-EHGL-SSD</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RA</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RB</t>
+          <t>XM-DAC-41121-2023-EHGL-SSD</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-SSD</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RB</t>
+          <t>XM-DAC-41121-2023-EHGL-SSD</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RB</t>
+          <t>XM-DAC-41121-2024-EHGL-SSD</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5460,12 +5460,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ROU</t>
+          <t>XM-DAC-41121-2023-EHGL-TZA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5477,12 +5477,12 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-ROU</t>
+          <t>XM-DAC-41121-2023-EHGL-TZA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-ROU</t>
+          <t>XM-DAC-41121-2022-EHGL-TZA</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5494,63 +5494,63 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RUS</t>
+          <t>XM-DAC-41121-2023-EHGL-TZA</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EHGL-TZA</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-RUS</t>
+          <t>XM-DAC-41121-2023-EHGL-UGA</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-RUS</t>
+          <t>XM-DAC-41121-2023-EHGL</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SRB</t>
+          <t>XM-DAC-41121-2023-EHGL-UGA</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EHGL-UGA</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SRB</t>
+          <t>XM-DAC-41121-2023-EHGL-UGA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SRB</t>
+          <t>XM-DAC-41121-2024-EHGL-UGA</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5562,7 +5562,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2023-EUR-ALB</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -5579,12 +5579,12 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2023-EUR-ALB</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
+          <t>XM-DAC-41121-2022-EUR-ALB</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5596,63 +5596,63 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-TUR</t>
+          <t>XM-DAC-41121-2023-EUR-ALB</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2024-EUR-ALB</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-TUR</t>
+          <t>XM-DAC-41121-2023-EUR-ARM</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-TUR</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-UKR</t>
+          <t>XM-DAC-41121-2023-EUR-ARM</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR</t>
+          <t>XM-DAC-41121-2022-EUR-ARM</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-EUR-UKR</t>
+          <t>XM-DAC-41121-2023-EUR-ARM</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-EUR-UKR</t>
+          <t>XM-DAC-41121-2024-EUR-ARM</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5664,12 +5664,12 @@
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-GLOBALPROG</t>
+          <t>XM-DAC-41121-2023-EUR-AZE</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5681,12 +5681,12 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-GLOBALPROG</t>
+          <t>XM-DAC-41121-2023-EUR-AZE</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-GLOBALPROG</t>
+          <t>XM-DAC-41121-2022-EUR-AZE</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5698,63 +5698,63 @@
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-HQ</t>
+          <t>XM-DAC-41121-2023-EUR-AZE</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2024-EUR-AZE</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-HQ</t>
+          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-HQ</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-JPO</t>
+          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023</t>
+          <t>XM-DAC-41121-2022-EUR-BELMCO</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-JPO</t>
+          <t>XM-DAC-41121-2023-EUR-BELMCO</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-JPO</t>
+          <t>XM-DAC-41121-2024-EUR-BELMCO</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5766,12 +5766,12 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-DZA</t>
+          <t>XM-DAC-41121-2023-EUR-BGR</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5783,12 +5783,12 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-DZA</t>
+          <t>XM-DAC-41121-2023-EUR-BGR</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-DZA</t>
+          <t>XM-DAC-41121-2022-EUR-BGR</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5800,63 +5800,63 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-EGY</t>
+          <t>XM-DAC-41121-2023-EUR-BGR</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2024-EUR-BGR</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-EGY</t>
+          <t>XM-DAC-41121-2023-EUR-BIH</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-EGY</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ESH</t>
+          <t>XM-DAC-41121-2023-EUR-BIH</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2022-EUR-BIH</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ESH</t>
+          <t>XM-DAC-41121-2023-EUR-BIH</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-ESH</t>
+          <t>XM-DAC-41121-2024-EUR-BIH</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5868,12 +5868,12 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+          <t>XM-DAC-41121-2023-EUR-BLR</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5885,12 +5885,12 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+          <t>XM-DAC-41121-2023-EUR-BLR</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-IRQ</t>
+          <t>XM-DAC-41121-2024-EUR-BLR</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5902,12 +5902,12 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ISR</t>
+          <t>XM-DAC-41121-2023-EUR-CYP</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5919,12 +5919,12 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-ISR</t>
+          <t>XM-DAC-41121-2023-EUR-CYP</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-ISR</t>
+          <t>XM-DAC-41121-2022-EUR-CYP</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5936,63 +5936,63 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-JOR</t>
+          <t>XM-DAC-41121-2023-EUR-CYP</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2024-EUR-CYP</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-JOR</t>
+          <t>XM-DAC-41121-2023-EUR-DEU</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-JOR</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBN</t>
+          <t>XM-DAC-41121-2023-EUR-DEU</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2022-EUR-DEU</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBN</t>
+          <t>XM-DAC-41121-2023-EUR-DEU</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBN</t>
+          <t>XM-DAC-41121-2024-EUR-DEU</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
@@ -6004,12 +6004,12 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBY</t>
+          <t>XM-DAC-41121-2023-EUR-ESP</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
@@ -6021,12 +6021,12 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-LBY</t>
+          <t>XM-DAC-41121-2023-EUR-ESP</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-LBY</t>
+          <t>XM-DAC-41121-2022-EUR-ESP</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
@@ -6038,63 +6038,63 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MAR</t>
+          <t>XM-DAC-41121-2023-EUR-ESP</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2024-EUR-ESP</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MAR</t>
+          <t>XM-DAC-41121-2023-EUR-FRA</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-MAR</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MRT</t>
+          <t>XM-DAC-41121-2023-EUR-FRA</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2022-EUR-FRA</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-MRT</t>
+          <t>XM-DAC-41121-2023-EUR-FRA</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-MRT</t>
+          <t>XM-DAC-41121-2024-EUR-FRA</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
@@ -6106,12 +6106,12 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-OO</t>
+          <t>XM-DAC-41121-2023-EUR-GBR</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
@@ -6123,12 +6123,12 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-OO</t>
+          <t>XM-DAC-41121-2023-EUR-GBR</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-OO</t>
+          <t>XM-DAC-41121-2022-EUR-GBR</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
@@ -6140,63 +6140,63 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-GBR</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2024-EUR-GBR</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-GEO</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-RA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-GEO</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2022-EUR-GEO</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-GEO</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-RB</t>
+          <t>XM-DAC-41121-2024-EUR-GEO</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6208,12 +6208,12 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+          <t>XM-DAC-41121-2023-EUR-GRC</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6225,12 +6225,12 @@
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+          <t>XM-DAC-41121-2023-EUR-GRC</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
+          <t>XM-DAC-41121-2022-EUR-GRC</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
@@ -6242,63 +6242,63 @@
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SYR</t>
+          <t>XM-DAC-41121-2023-EUR-GRC</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2024-EUR-GRC</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-SYR</t>
+          <t>XM-DAC-41121-2023-EUR-HRV</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-SYR</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-TUN</t>
+          <t>XM-DAC-41121-2023-EUR-HRV</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2022-EUR-HRV</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-TUN</t>
+          <t>XM-DAC-41121-2023-EUR-HRV</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-TUN</t>
+          <t>XM-DAC-41121-2024-EUR-HRV</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6310,12 +6310,12 @@
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-YEM</t>
+          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6327,12 +6327,12 @@
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-MENA-YEM</t>
+          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-MENA-YEM</t>
+          <t>XM-DAC-41121-2022-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
@@ -6344,63 +6344,63 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-AGO</t>
+          <t>XM-DAC-41121-2023-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2024-EUR-HUNMCO</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-AGO</t>
+          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-AGO</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COD</t>
+          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2022-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COD</t>
+          <t>XM-DAC-41121-2023-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-COD</t>
+          <t>XM-DAC-41121-2024-EUR-ITAMCO</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
@@ -6412,12 +6412,12 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COG</t>
+          <t>XM-DAC-41121-2023-EUR-KOS</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6429,12 +6429,12 @@
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-COG</t>
+          <t>XM-DAC-41121-2023-EUR-KOS</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-COG</t>
+          <t>XM-DAC-41121-2022-EUR-KOS</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6446,97 +6446,97 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MOZ</t>
+          <t>XM-DAC-41121-2023-EUR-KOS</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2024-EUR-KOS</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MOZ</t>
+          <t>XM-DAC-41121-2023-EUR-MDA</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-MOZ</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MWI</t>
+          <t>XM-DAC-41121-2023-EUR-MDA</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2024-EUR-MDA</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-MWI</t>
+          <t>XM-DAC-41121-2023-EUR-MKD</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-MWI</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-MKD</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2022-EUR-MKD</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-MKD</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-RA</t>
+          <t>XM-DAC-41121-2024-EUR-MKD</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6548,12 +6548,12 @@
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-MLT</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6565,12 +6565,12 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-MLT</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-RB</t>
+          <t>XM-DAC-41121-2022-EUR-MLT</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
@@ -6582,63 +6582,63 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+          <t>XM-DAC-41121-2023-EUR-MLT</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2024-EUR-MLT</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+          <t>XM-DAC-41121-2023-EUR-MNE</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZMB</t>
+          <t>XM-DAC-41121-2023-EUR-MNE</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2022-EUR-MNE</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZMB</t>
+          <t>XM-DAC-41121-2023-EUR-MNE</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZMB</t>
+          <t>XM-DAC-41121-2024-EUR-MNE</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
@@ -6650,12 +6650,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZWE</t>
+          <t>XM-DAC-41121-2023-EUR-OO</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SAO</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6667,12 +6667,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-SA-ZWE</t>
+          <t>XM-DAC-41121-2023-EUR-OO</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-SA-ZWE</t>
+          <t>XM-DAC-41121-2022-EUR-OO</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6684,63 +6684,63 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-BFA</t>
+          <t>XM-DAC-41121-2023-EUR-OO</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2024-EUR-OO</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-BFA</t>
+          <t>XM-DAC-41121-2023-EUR-POL</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-BFA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CAF</t>
+          <t>XM-DAC-41121-2023-EUR-POL</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2022-EUR-POL</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CAF</t>
+          <t>XM-DAC-41121-2023-EUR-POL</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CAF</t>
+          <t>XM-DAC-41121-2024-EUR-POL</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
@@ -6752,12 +6752,12 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CIV</t>
+          <t>XM-DAC-41121-2023-EUR-RA</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
@@ -6769,12 +6769,12 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CIV</t>
+          <t>XM-DAC-41121-2023-EUR-RA</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CIV</t>
+          <t>XM-DAC-41121-2022-EUR-RA</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6786,12 +6786,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2023-EUR-RB</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6803,12 +6803,12 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2023-EUR-RB</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+          <t>XM-DAC-41121-2022-EUR-RB</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
@@ -6820,63 +6820,63 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-GHA</t>
+          <t>XM-DAC-41121-2023-EUR-RB</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2024-EUR-RB</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-GHA</t>
+          <t>XM-DAC-41121-2023-EUR-ROU</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-GHA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-LBR</t>
+          <t>XM-DAC-41121-2023-EUR-ROU</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2022-EUR-ROU</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-LBR</t>
+          <t>XM-DAC-41121-2023-EUR-ROU</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-LBR</t>
+          <t>XM-DAC-41121-2024-EUR-ROU</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
@@ -6888,12 +6888,12 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-MLI</t>
+          <t>XM-DAC-41121-2023-EUR-RUS</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6905,12 +6905,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-MLI</t>
+          <t>XM-DAC-41121-2023-EUR-RUS</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-MLI</t>
+          <t>XM-DAC-41121-2022-EUR-RUS</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -6922,63 +6922,63 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NER</t>
+          <t>XM-DAC-41121-2023-EUR-RUS</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2024-EUR-RUS</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NER</t>
+          <t>XM-DAC-41121-2023-EUR-SRB</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-NER</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NGA</t>
+          <t>XM-DAC-41121-2023-EUR-SRB</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2022-EUR-SRB</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-NGA</t>
+          <t>XM-DAC-41121-2023-EUR-SRB</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-NGA</t>
+          <t>XM-DAC-41121-2024-EUR-SRB</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
@@ -6990,12 +6990,12 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
@@ -7007,12 +7007,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RA</t>
+          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-RA</t>
+          <t>XM-DAC-41121-2022-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7024,63 +7024,63 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2024-EUR-SWEMCO</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-RB</t>
+          <t>XM-DAC-41121-2023-EUR-TUR</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-RB</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+          <t>XM-DAC-41121-2023-EUR-TUR</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2022-EUR-TUR</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+          <t>XM-DAC-41121-2023-EUR-TUR</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
+          <t>XM-DAC-41121-2024-EUR-TUR</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
@@ -7092,12 +7092,12 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA-TCD</t>
+          <t>XM-DAC-41121-2023-EUR-UKR</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>XM-DAC-41121-2023-WCA</t>
+          <t>XM-DAC-41121-2023-EUR</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
@@ -7109,15 +7109,2140 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
+          <t>XM-DAC-41121-2023-EUR-UKR</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-EUR-UKR</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-EUR-UKR</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-EUR-UKR</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-GLOBALPROG</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-GLOBALPROG</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-GLOBALPROG</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-GLOBALPROG</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-GLOBALPROG</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-HQ</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-HQ</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-HQ</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-HQ</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-HQ</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-JPO</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-JPO</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-JPO</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-JPO</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-JPO</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-DZA</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-DZA</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-DZA</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-DZA</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-DZA</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-EGY</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-EGY</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-EGY</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-EGY</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-EGY</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ESH</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ESH</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-ESH</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ESH</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-ESH</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-IRQ</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-IRQ</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-IRQ</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-ISR</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-JOR</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-LBN</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-LBY</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-MAR</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-MRT</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-OO</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-OO</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-OO</t>
+        </is>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-OO</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-OO</t>
+        </is>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-RA</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-RA</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-RA</t>
+        </is>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-RB</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-RB</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-RB</t>
+        </is>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-RB</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-RB</t>
+        </is>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-SAUMCO</t>
+        </is>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-SYR</t>
+        </is>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-TUN</t>
+        </is>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA</t>
+        </is>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-MENA-YEM</t>
+        </is>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-AGO</t>
+        </is>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-AGO</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-AGO</t>
+        </is>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COD</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COD</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COD</t>
+        </is>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COD</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-COD</t>
+        </is>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COG</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COG</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-COG</t>
+        </is>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-COG</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-COG</t>
+        </is>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-MOZ</t>
+        </is>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MWI</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MWI</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-MWI</t>
+        </is>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-MWI</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-MWI</t>
+        </is>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-RA</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-RA</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-RA</t>
+        </is>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-RB</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-RB</t>
+        </is>
+      </c>
+      <c r="B477" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-RB</t>
+        </is>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-RB</t>
+        </is>
+      </c>
+      <c r="B478" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-RB</t>
+        </is>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="B479" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="B480" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="B481" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-ZAFMCO</t>
+        </is>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="B482" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="B483" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="B484" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-ZMB</t>
+        </is>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="B485" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SAO</t>
+        </is>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="B486" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="B487" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-SA-ZWE</t>
+        </is>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B488" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B489" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="B490" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-BFA</t>
+        </is>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B491" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B492" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="B493" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-CAF</t>
+        </is>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="B494" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="B495" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="B496" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-CIV</t>
+        </is>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B497" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B498" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="B499" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-CMRMCO</t>
+        </is>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-GHA</t>
+        </is>
+      </c>
+      <c r="B500" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-GHA</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-GHA</t>
+        </is>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-LBR</t>
+        </is>
+      </c>
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-LBR</t>
+        </is>
+      </c>
+      <c r="B503" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-LBR</t>
+        </is>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B504" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B505" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="B506" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-MLI</t>
+        </is>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NER</t>
+        </is>
+      </c>
+      <c r="B507" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NER</t>
+        </is>
+      </c>
+      <c r="B508" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NER</t>
+        </is>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NER</t>
+        </is>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-NER</t>
+        </is>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-NGA</t>
+        </is>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-RA</t>
+        </is>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-RA</t>
+        </is>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-RA</t>
+        </is>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-RB</t>
+        </is>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-RB</t>
+        </is>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-RB</t>
+        </is>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-RB</t>
+        </is>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-RB</t>
+        </is>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2022-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-SENMCO</t>
+        </is>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
           <t>XM-DAC-41121-2023-WCA-TCD</t>
         </is>
       </c>
-      <c r="B398" t="inlineStr">
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA</t>
+        </is>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="B522" t="inlineStr">
         <is>
           <t>XM-DAC-41121-2022-WCA-TCD</t>
         </is>
       </c>
-      <c r="C398" t="inlineStr">
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2023-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>XM-DAC-41121-2024-WCA-TCD</t>
+        </is>
+      </c>
+      <c r="C523" t="inlineStr">
         <is>
           <t>3</t>
         </is>
